--- a/value.xlsx
+++ b/value.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBA97D1-346E-494C-AEDC-DC95F8469EA6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +13,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>1234</t>
   </si>
@@ -47,44 +48,13 @@
   </si>
   <si>
     <t>sno</t>
-  </si>
-  <si>
-    <t>radhe</t>
-  </si>
-  <si>
-    <t>rj@mail.com</t>
-  </si>
-  <si>
-    <t>kullu</t>
-  </si>
-  <si>
-    <t>kul@gmail.com</t>
-  </si>
-  <si>
-    <t>keyur</t>
-  </si>
-  <si>
-    <t>keyur@gmail.com</t>
-  </si>
-  <si>
-    <t>Kulshreshtha</t>
-  </si>
-  <si>
-    <t>k@gmail.com</t>
-  </si>
-  <si>
-    <t>RedEagle</t>
-  </si>
-  <si>
-    <t>r@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,17 +364,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -416,90 +388,6 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -508,19 +396,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -531,7 +419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
